--- a/medicine/Sexualité et sexologie/Fleur_secrète/Fleur_secrète.xlsx
+++ b/medicine/Sexualité et sexologie/Fleur_secrète/Fleur_secrète.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fleur_secr%C3%A8te</t>
+          <t>Fleur_secrète</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fleur secrète (花と蛇, Hana to hebi?) est un film japonais réalisé par Masaru Konuma, réalisé en 1974, d'après le roman du même nom de Oniroku Dan (en).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fleur_secr%C3%A8te</t>
+          <t>Fleur_secrète</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Senzō Tōyama demande à son domestique d'enlever sa femme Shizuko afin de l'entraîner à se soumettre à tous ses désirs.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fleur_secr%C3%A8te</t>
+          <t>Fleur_secrète</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Fleur secrète
-Titres alternatifs : Vices et supplices ; Fleurs et serpents[1]
+Titres alternatifs : Vices et supplices ; Fleurs et serpents
 Titre original : 花と蛇 (Hana to hebi?)
 Titre anglophone : Flower and Snake
 Réalisation : Masaru Konuma
@@ -558,9 +574,9 @@
 Langue originale : japonais
 Format : couleur - 2,35:1 - mono
 Genre : Film érotique
-Durée : 73 minutes[2]
+Durée : 73 minutes
 Date de sortie :
-Japon : 22 juin 1974[2]</t>
+Japon : 22 juin 1974</t>
         </is>
       </c>
     </row>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fleur_secr%C3%A8te</t>
+          <t>Fleur_secrète</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Naomi Tani : Shizuko Tōyama
 Nagatoshi Sakamoto (ja) : Senzō Tōyama
